--- a/xlsx/country_comparison/few_main_mean.xlsx
+++ b/xlsx/country_comparison/few_main_mean.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
     <t xml:space="preserve">Europe</t>
   </si>
   <si>
@@ -30,12 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support for a Global Climate Scheme at $90/tCO2</t>
   </si>
   <si>
     <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
@@ -409,22 +406,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.757320866764204</v>
+        <v>0.471390712559358</v>
       </c>
       <c r="C2" t="n">
-        <v>0.790838302049663</v>
+        <v>0.939115806311088</v>
       </c>
       <c r="D2" t="n">
-        <v>0.714184300632022</v>
+        <v>0.801008965030808</v>
       </c>
       <c r="E2" t="n">
-        <v>0.821162322917585</v>
+        <v>0.98537712667328</v>
       </c>
       <c r="F2" t="n">
-        <v>0.73482067298493</v>
+        <v>1.23105123304645</v>
       </c>
       <c r="G2" t="n">
-        <v>0.527972734148463</v>
+        <v>0.905942717080616</v>
       </c>
     </row>
     <row r="3">
@@ -432,22 +429,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.939115806311088</v>
+        <v>0.502686637940573</v>
       </c>
       <c r="C3" t="n">
-        <v>0.747947365730008</v>
+        <v>0.535405079823794</v>
       </c>
       <c r="D3" t="n">
-        <v>0.98328787412039</v>
+        <v>0.53495530999455</v>
       </c>
       <c r="E3" t="n">
-        <v>1.26163114039343</v>
+        <v>0.504405401186565</v>
       </c>
       <c r="F3" t="n">
-        <v>0.843876882772982</v>
+        <v>0.57374820373221</v>
       </c>
       <c r="G3" t="n">
-        <v>0.471390712559358</v>
+        <v>0.54094700051697</v>
       </c>
     </row>
     <row r="4">
@@ -455,22 +452,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.535405079823794</v>
+        <v>0.363475305693404</v>
       </c>
       <c r="C4" t="n">
-        <v>0.538551552740021</v>
+        <v>0.675757600404575</v>
       </c>
       <c r="D4" t="n">
-        <v>0.502505686573289</v>
+        <v>0.549180456697259</v>
       </c>
       <c r="E4" t="n">
-        <v>0.591198927333023</v>
+        <v>0.707186478073401</v>
       </c>
       <c r="F4" t="n">
-        <v>0.531688136181946</v>
+        <v>0.847603208216924</v>
       </c>
       <c r="G4" t="n">
-        <v>0.502686637940573</v>
+        <v>0.639895275923514</v>
       </c>
     </row>
     <row r="5">
@@ -478,45 +475,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.675757600404575</v>
+        <v>0.171453672592208</v>
       </c>
       <c r="C5" t="n">
-        <v>0.52701166818821</v>
+        <v>0.332716123110155</v>
       </c>
       <c r="D5" t="n">
-        <v>0.701079305465865</v>
+        <v>0.334988944221747</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8954403861694</v>
+        <v>0.515956412943109</v>
       </c>
       <c r="F5" t="n">
-        <v>0.628270885835144</v>
+        <v>0.556199232801662</v>
       </c>
       <c r="G5" t="n">
-        <v>0.363475305693404</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.666358061555078</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.655681595827815</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.77298470183863</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.822541184092187</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.424153233338479</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.585726836296104</v>
+        <v>-0.025928241409739</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/few_main_mean.xlsx
+++ b/xlsx/country_comparison/few_main_mean.xlsx
@@ -12,27 +12,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
+    <t xml:space="preserve">Support for a Global Climate Scheme at $90/tCO2</t>
   </si>
   <si>
     <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
@@ -406,22 +409,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.471390712559358</v>
+        <v>75.7320866764204</v>
       </c>
       <c r="C2" t="n">
-        <v>0.939115806311088</v>
+        <v>80.2845995450502</v>
       </c>
       <c r="D2" t="n">
-        <v>0.801008965030808</v>
+        <v>71.2681465751731</v>
       </c>
       <c r="E2" t="n">
-        <v>0.98537712667328</v>
+        <v>80.9917713113721</v>
       </c>
       <c r="F2" t="n">
-        <v>1.23105123304645</v>
+        <v>74.106127773703</v>
       </c>
       <c r="G2" t="n">
-        <v>0.905942717080616</v>
+        <v>54.2040004729188</v>
       </c>
     </row>
     <row r="3">
@@ -429,22 +432,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.502686637940573</v>
+        <v>0.939115806311088</v>
       </c>
       <c r="C3" t="n">
-        <v>0.535405079823794</v>
+        <v>0.801008965030808</v>
       </c>
       <c r="D3" t="n">
-        <v>0.53495530999455</v>
+        <v>0.98537712667328</v>
       </c>
       <c r="E3" t="n">
-        <v>0.504405401186565</v>
+        <v>1.23105123304645</v>
       </c>
       <c r="F3" t="n">
-        <v>0.57374820373221</v>
+        <v>0.905942717080616</v>
       </c>
       <c r="G3" t="n">
-        <v>0.54094700051697</v>
+        <v>0.471390712559358</v>
       </c>
     </row>
     <row r="4">
@@ -452,22 +455,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.363475305693404</v>
+        <v>0.535405079823794</v>
       </c>
       <c r="C4" t="n">
-        <v>0.675757600404575</v>
+        <v>0.53495530999455</v>
       </c>
       <c r="D4" t="n">
-        <v>0.549180456697259</v>
+        <v>0.504405401186565</v>
       </c>
       <c r="E4" t="n">
-        <v>0.707186478073401</v>
+        <v>0.57374820373221</v>
       </c>
       <c r="F4" t="n">
-        <v>0.847603208216924</v>
+        <v>0.54094700051697</v>
       </c>
       <c r="G4" t="n">
-        <v>0.639895275923514</v>
+        <v>0.502686637940573</v>
       </c>
     </row>
     <row r="5">
@@ -475,22 +478,45 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
+        <v>0.675757600404575</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.549180456697259</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.707186478073401</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.847603208216924</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.639895275923514</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.363475305693404</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.332716123110155</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.334988944221747</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.515956412943109</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.556199232801662</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.025928241409739</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.171453672592208</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.332716123110155</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.334988944221747</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.515956412943109</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.556199232801662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.025928241409739</v>
       </c>
     </row>
   </sheetData>
